--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col9a3-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col9a3-Mag.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3972153333333334</v>
+        <v>0.1819176666666666</v>
       </c>
       <c r="H2">
-        <v>1.191646</v>
+        <v>0.5457529999999999</v>
       </c>
       <c r="I2">
-        <v>0.3489127786861054</v>
+        <v>0.2278676299892611</v>
       </c>
       <c r="J2">
-        <v>0.3489127786861054</v>
+        <v>0.2278676299892611</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1614186666666667</v>
+        <v>0.003643333333333333</v>
       </c>
       <c r="N2">
-        <v>0.484256</v>
+        <v>0.01093</v>
       </c>
       <c r="O2">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="P2">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="Q2">
-        <v>0.06411796948622224</v>
+        <v>0.0006627866988888889</v>
       </c>
       <c r="R2">
-        <v>0.5770617253760001</v>
+        <v>0.00596508029</v>
       </c>
       <c r="S2">
-        <v>0.1034444143770268</v>
+        <v>0.0004960758978244632</v>
       </c>
       <c r="T2">
-        <v>0.1034444143770268</v>
+        <v>0.0004960758978244632</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3972153333333334</v>
+        <v>0.1819176666666666</v>
       </c>
       <c r="H3">
-        <v>1.191646</v>
+        <v>0.5457529999999999</v>
       </c>
       <c r="I3">
-        <v>0.3489127786861054</v>
+        <v>0.2278676299892611</v>
       </c>
       <c r="J3">
-        <v>0.3489127786861054</v>
+        <v>0.2278676299892611</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3830383333333333</v>
+        <v>1.669886333333333</v>
       </c>
       <c r="N3">
-        <v>1.149115</v>
+        <v>5.009659</v>
       </c>
       <c r="O3">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="P3">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="Q3">
-        <v>0.1521486992544445</v>
+        <v>0.3037818253585555</v>
       </c>
       <c r="R3">
-        <v>1.36933829329</v>
+        <v>2.734036428227</v>
       </c>
       <c r="S3">
-        <v>0.2454683643090786</v>
+        <v>0.2273715540914366</v>
       </c>
       <c r="T3">
-        <v>0.2454683643090786</v>
+        <v>0.2273715540914367</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,13 +661,13 @@
         <v>0.285758</v>
       </c>
       <c r="H4">
-        <v>0.857274</v>
+        <v>0.8572740000000001</v>
       </c>
       <c r="I4">
-        <v>0.2510089854162665</v>
+        <v>0.3579366391598651</v>
       </c>
       <c r="J4">
-        <v>0.2510089854162665</v>
+        <v>0.3579366391598652</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1614186666666667</v>
+        <v>0.003643333333333333</v>
       </c>
       <c r="N4">
-        <v>0.484256</v>
+        <v>0.01093</v>
       </c>
       <c r="O4">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="P4">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="Q4">
-        <v>0.04612667534933334</v>
+        <v>0.001041111646666667</v>
       </c>
       <c r="R4">
-        <v>0.415140078144</v>
+        <v>0.009370004820000001</v>
       </c>
       <c r="S4">
-        <v>0.07441824744148119</v>
+        <v>0.0007792407357019915</v>
       </c>
       <c r="T4">
-        <v>0.07441824744148119</v>
+        <v>0.0007792407357019917</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,43 +723,43 @@
         <v>0.285758</v>
       </c>
       <c r="H5">
-        <v>0.857274</v>
+        <v>0.8572740000000001</v>
       </c>
       <c r="I5">
-        <v>0.2510089854162665</v>
+        <v>0.3579366391598651</v>
       </c>
       <c r="J5">
-        <v>0.2510089854162665</v>
+        <v>0.3579366391598652</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3830383333333333</v>
+        <v>1.669886333333333</v>
       </c>
       <c r="N5">
-        <v>1.149115</v>
+        <v>5.009659</v>
       </c>
       <c r="O5">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="P5">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="Q5">
-        <v>0.1094562680566667</v>
+        <v>0.4771833788406667</v>
       </c>
       <c r="R5">
-        <v>0.9851064125099999</v>
+        <v>4.294650409566001</v>
       </c>
       <c r="S5">
-        <v>0.1765907379747853</v>
+        <v>0.3571573984241631</v>
       </c>
       <c r="T5">
-        <v>0.1765907379747853</v>
+        <v>0.3571573984241632</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.455464</v>
+        <v>0.3306723333333333</v>
       </c>
       <c r="H6">
-        <v>1.366392</v>
+        <v>0.992017</v>
       </c>
       <c r="I6">
-        <v>0.400078235897628</v>
+        <v>0.4141957308508737</v>
       </c>
       <c r="J6">
-        <v>0.4000782358976281</v>
+        <v>0.4141957308508737</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,28 +800,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1614186666666667</v>
+        <v>0.003643333333333333</v>
       </c>
       <c r="N6">
-        <v>0.484256</v>
+        <v>0.01093</v>
       </c>
       <c r="O6">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="P6">
-        <v>0.2964764281966559</v>
+        <v>0.002177035403614994</v>
       </c>
       <c r="Q6">
-        <v>0.07352039159466668</v>
+        <v>0.001204749534444445</v>
       </c>
       <c r="R6">
-        <v>0.6616835243520001</v>
+        <v>0.01084274581</v>
       </c>
       <c r="S6">
-        <v>0.1186137663781479</v>
+        <v>0.0009017187700885393</v>
       </c>
       <c r="T6">
-        <v>0.1186137663781479</v>
+        <v>0.0009017187700885394</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.455464</v>
+        <v>0.3306723333333333</v>
       </c>
       <c r="H7">
-        <v>1.366392</v>
+        <v>0.992017</v>
       </c>
       <c r="I7">
-        <v>0.400078235897628</v>
+        <v>0.4141957308508737</v>
       </c>
       <c r="J7">
-        <v>0.4000782358976281</v>
+        <v>0.4141957308508737</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3830383333333333</v>
+        <v>1.669886333333333</v>
       </c>
       <c r="N7">
-        <v>1.149115</v>
+        <v>5.009659</v>
       </c>
       <c r="O7">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="P7">
-        <v>0.7035235718033441</v>
+        <v>0.997822964596385</v>
       </c>
       <c r="Q7">
-        <v>0.1744601714533333</v>
+        <v>0.5521852102447778</v>
       </c>
       <c r="R7">
-        <v>1.57014154308</v>
+        <v>4.969666892203001</v>
       </c>
       <c r="S7">
-        <v>0.2814644695194802</v>
+        <v>0.4132940120807851</v>
       </c>
       <c r="T7">
-        <v>0.2814644695194802</v>
+        <v>0.4132940120807852</v>
       </c>
     </row>
   </sheetData>
